--- a/upload/excel/Data_Drainase_Format.xlsx
+++ b/upload/excel/Data_Drainase_Format.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\sibama-web\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\sibama-web\upload\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552D5C9-FD4B-4B52-9205-5D28A323C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B1281C-08FF-46FB-AD73-1EE8D73DB3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="1875" windowWidth="15450" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="26745" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Laporan Data Drainase" sheetId="1" r:id="rId1"/>
@@ -28,22 +28,31 @@
     <t>id_jalan</t>
   </si>
   <si>
+    <t>jalur_jalan</t>
+  </si>
+  <si>
+    <t>lat_awal</t>
+  </si>
+  <si>
+    <t>long_awal</t>
+  </si>
+  <si>
+    <t>lat_akhir</t>
+  </si>
+  <si>
+    <t>long_akhir</t>
+  </si>
+  <si>
     <t>sta</t>
   </si>
   <si>
-    <t>lat_awal</t>
-  </si>
-  <si>
-    <t>long_awal</t>
-  </si>
-  <si>
-    <t>lat_akhir</t>
-  </si>
-  <si>
-    <t>long_akhir</t>
-  </si>
-  <si>
-    <t>panjang_saluran</t>
+    <t>panjang</t>
+  </si>
+  <si>
+    <t>tinggi</t>
+  </si>
+  <si>
+    <t>lebar</t>
   </si>
   <si>
     <t>slope</t>
@@ -52,18 +61,27 @@
     <t>catchment_area</t>
   </si>
   <si>
-    <t>tinggi_saluran</t>
-  </si>
-  <si>
-    <t>lebar_saluran</t>
-  </si>
-  <si>
     <t>luas_penampung</t>
   </si>
   <si>
     <t>keliling_penampung</t>
   </si>
   <si>
+    <t>tipe</t>
+  </si>
+  <si>
+    <t>arah_air</t>
+  </si>
+  <si>
+    <t>id_kondisi_fisik</t>
+  </si>
+  <si>
+    <t>id_kondisi_sedimen</t>
+  </si>
+  <si>
+    <t>id_penanganan</t>
+  </si>
+  <si>
     <t>file_dimensi</t>
   </si>
   <si>
@@ -74,24 +92,6 @@
   </si>
   <si>
     <t>nama_file_foto</t>
-  </si>
-  <si>
-    <t>id_tipe_saluran</t>
-  </si>
-  <si>
-    <t>id_arah_aliran</t>
-  </si>
-  <si>
-    <t>id_kondisi_fisik</t>
-  </si>
-  <si>
-    <t>id_kondisi_sedimen</t>
-  </si>
-  <si>
-    <t>id_penanganan</t>
-  </si>
-  <si>
-    <t>id_lajur_drainase</t>
   </si>
   <si>
     <t>date</t>
@@ -461,14 +461,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="18" width="25" customWidth="1"/>
-    <col min="19" max="25" width="20" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="16" max="17" width="15" customWidth="1"/>
+    <col min="18" max="25" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -550,6 +554,17 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{DAD5D6F5-DE76-48F0-A077-C85A39066004}">
+      <formula1>"Kanan,Kiri"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{9EF2E0E3-73F5-4C50-8AF4-A25DF49FE954}">
+      <formula1>"Terbuka,Tertutup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{F2B57DFD-10A1-4A41-AA61-7093720A5E25}">
+      <formula1>"Atas,Bawah"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
